--- a/VAV_data_week.xlsx
+++ b/VAV_data_week.xlsx
@@ -860,9 +860,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H2596"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A184" sqref="A184:H2596"/>
+    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="A313" sqref="A313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5636,550 +5635,3432 @@
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="1"/>
-      <c r="B184" s="3"/>
+      <c r="A184" s="1">
+        <v>41828</v>
+      </c>
+      <c r="B184" s="3">
+        <v>183</v>
+      </c>
+      <c r="C184">
+        <v>58</v>
+      </c>
+      <c r="D184">
+        <v>72.523333333333298</v>
+      </c>
+      <c r="E184">
+        <v>68.499999999999901</v>
+      </c>
+      <c r="F184">
+        <v>68.81</v>
+      </c>
+      <c r="G184">
+        <v>66.154999999999902</v>
+      </c>
+      <c r="H184">
+        <v>248.56778333333301</v>
+      </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="1"/>
-      <c r="B185" s="3"/>
+      <c r="A185" s="1">
+        <v>41828.041666666664</v>
+      </c>
+      <c r="B185" s="3">
+        <v>184</v>
+      </c>
+      <c r="C185">
+        <v>57</v>
+      </c>
+      <c r="D185">
+        <v>69.534999999999997</v>
+      </c>
+      <c r="E185">
+        <v>68.508333333333297</v>
+      </c>
+      <c r="F185">
+        <v>69.161666666666704</v>
+      </c>
+      <c r="G185">
+        <v>66.251666666666594</v>
+      </c>
+      <c r="H185">
+        <v>248.75071666666599</v>
+      </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="1"/>
-      <c r="B186" s="3"/>
+      <c r="A186" s="1">
+        <v>41828.083333333336</v>
+      </c>
+      <c r="B186" s="3">
+        <v>185</v>
+      </c>
+      <c r="C186">
+        <v>57</v>
+      </c>
+      <c r="D186">
+        <v>69.106666666666698</v>
+      </c>
+      <c r="E186">
+        <v>68.824999999999903</v>
+      </c>
+      <c r="F186">
+        <v>69.338333333333296</v>
+      </c>
+      <c r="G186">
+        <v>66.2916666666666</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="1"/>
-      <c r="B187" s="3"/>
+      <c r="A187" s="1">
+        <v>41828.125</v>
+      </c>
+      <c r="B187" s="3">
+        <v>186</v>
+      </c>
+      <c r="C187">
+        <v>57</v>
+      </c>
+      <c r="D187">
+        <v>68.669999999999902</v>
+      </c>
+      <c r="E187">
+        <v>68.516666666666595</v>
+      </c>
+      <c r="F187">
+        <v>69.314999999999998</v>
+      </c>
+      <c r="G187">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="1"/>
-      <c r="B188" s="3"/>
+      <c r="A188" s="1">
+        <v>41828.166666666664</v>
+      </c>
+      <c r="B188" s="3">
+        <v>187</v>
+      </c>
+      <c r="C188">
+        <v>57</v>
+      </c>
+      <c r="D188">
+        <v>68.116666666666603</v>
+      </c>
+      <c r="E188">
+        <v>68.508333333333198</v>
+      </c>
+      <c r="F188">
+        <v>69.031666666666595</v>
+      </c>
+      <c r="G188">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="1"/>
-      <c r="B189" s="3"/>
+      <c r="A189" s="1">
+        <v>41828.208333333336</v>
+      </c>
+      <c r="B189" s="3">
+        <v>188</v>
+      </c>
+      <c r="C189">
+        <v>57</v>
+      </c>
+      <c r="D189">
+        <v>68.118333333333396</v>
+      </c>
+      <c r="E189">
+        <v>68.499999999999901</v>
+      </c>
+      <c r="F189">
+        <v>68.613333333333202</v>
+      </c>
+      <c r="G189">
+        <v>66.433333333333294</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="1"/>
-      <c r="B190" s="3"/>
+      <c r="A190" s="1">
+        <v>41828.25</v>
+      </c>
+      <c r="B190" s="3">
+        <v>189</v>
+      </c>
+      <c r="C190">
+        <v>58</v>
+      </c>
+      <c r="D190">
+        <v>68.14</v>
+      </c>
+      <c r="E190">
+        <v>68.499999999999901</v>
+      </c>
+      <c r="F190">
+        <v>68.2083333333333</v>
+      </c>
+      <c r="G190">
+        <v>66.488333333333301</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="1"/>
-      <c r="B191" s="3"/>
+      <c r="A191" s="1">
+        <v>41828.291666666664</v>
+      </c>
+      <c r="B191" s="3">
+        <v>190</v>
+      </c>
+      <c r="C191">
+        <v>59</v>
+      </c>
+      <c r="D191">
+        <v>67.851666666666603</v>
+      </c>
+      <c r="E191">
+        <v>68.499999999999901</v>
+      </c>
+      <c r="F191">
+        <v>67.881666666666604</v>
+      </c>
+      <c r="G191">
+        <v>66.491666666666603</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="1"/>
-      <c r="B192" s="3"/>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="1"/>
-      <c r="B193" s="3"/>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="1"/>
-      <c r="B194" s="3"/>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="1"/>
-      <c r="B195" s="3"/>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="1"/>
-      <c r="B196" s="3"/>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="1"/>
-      <c r="B197" s="3"/>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="1"/>
-      <c r="B198" s="3"/>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="1"/>
-      <c r="B199" s="3"/>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="1"/>
-      <c r="B200" s="3"/>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="1"/>
-      <c r="B201" s="3"/>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="1"/>
-      <c r="B202" s="3"/>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="1"/>
-      <c r="B203" s="3"/>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="1"/>
-      <c r="B204" s="3"/>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="1"/>
-      <c r="B205" s="3"/>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="1"/>
-      <c r="B206" s="3"/>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="1"/>
-      <c r="B207" s="3"/>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="1"/>
-      <c r="B208" s="3"/>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="1"/>
-      <c r="B209" s="3"/>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="1"/>
-      <c r="B210" s="3"/>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="1"/>
-      <c r="B211" s="3"/>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="1"/>
-      <c r="B212" s="3"/>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="1"/>
-      <c r="B213" s="3"/>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="1"/>
-      <c r="B214" s="3"/>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="1"/>
-      <c r="B215" s="3"/>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="1"/>
-      <c r="B216" s="3"/>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="1"/>
-      <c r="B217" s="3"/>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="1"/>
-      <c r="B218" s="3"/>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="1"/>
-      <c r="B219" s="3"/>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="1"/>
-      <c r="B220" s="3"/>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="1"/>
-      <c r="B221" s="3"/>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="1"/>
-      <c r="B222" s="3"/>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="1"/>
-      <c r="B223" s="3"/>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="1"/>
-      <c r="B224" s="3"/>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="1"/>
-      <c r="B225" s="3"/>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="1"/>
-      <c r="B226" s="3"/>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="1"/>
-      <c r="B227" s="3"/>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="1"/>
-      <c r="B228" s="3"/>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="1"/>
-      <c r="B229" s="3"/>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="1"/>
-      <c r="B230" s="3"/>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="1"/>
-      <c r="B231" s="3"/>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="1"/>
-      <c r="B232" s="3"/>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="1"/>
-      <c r="B233" s="3"/>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="1"/>
-      <c r="B234" s="3"/>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="1"/>
-      <c r="B235" s="3"/>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="1"/>
-      <c r="B236" s="3"/>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="1"/>
-      <c r="B237" s="3"/>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="1"/>
-      <c r="B238" s="3"/>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="1"/>
-      <c r="B239" s="3"/>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="1"/>
-      <c r="B240" s="3"/>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="1"/>
-      <c r="B241" s="3"/>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="1"/>
-      <c r="B242" s="3"/>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="1"/>
-      <c r="B243" s="3"/>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="1"/>
-      <c r="B244" s="3"/>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="1"/>
-      <c r="B245" s="3"/>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="1"/>
-      <c r="B246" s="3"/>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="1"/>
-      <c r="B247" s="3"/>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="1"/>
-      <c r="B248" s="3"/>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="1"/>
-      <c r="B249" s="3"/>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="1"/>
-      <c r="B250" s="3"/>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="1"/>
-      <c r="B251" s="3"/>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="1"/>
-      <c r="B252" s="3"/>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="1"/>
-      <c r="B253" s="3"/>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
-      <c r="B254" s="3"/>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
-      <c r="B255" s="3"/>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="1"/>
-      <c r="B256" s="3"/>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="1"/>
-      <c r="B257" s="3"/>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
-      <c r="B258" s="3"/>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
-      <c r="B259" s="3"/>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="1"/>
-      <c r="B260" s="3"/>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="1"/>
-      <c r="B261" s="3"/>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="1"/>
-      <c r="B262" s="3"/>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="1"/>
-      <c r="B263" s="3"/>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="1"/>
-      <c r="B264" s="3"/>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="1"/>
-      <c r="B265" s="3"/>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="1"/>
-      <c r="B266" s="3"/>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="1"/>
-      <c r="B267" s="3"/>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="1"/>
-      <c r="B268" s="3"/>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="1"/>
-      <c r="B269" s="3"/>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="1"/>
-      <c r="B270" s="3"/>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="1"/>
-      <c r="B271" s="3"/>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="1"/>
-      <c r="B272" s="3"/>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="1"/>
-      <c r="B273" s="3"/>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="1"/>
-      <c r="B274" s="3"/>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="1"/>
-      <c r="B275" s="3"/>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="1"/>
-      <c r="B276" s="3"/>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="1"/>
-      <c r="B277" s="3"/>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="1"/>
-      <c r="B278" s="3"/>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="1"/>
-      <c r="B279" s="3"/>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="1"/>
-      <c r="B280" s="3"/>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="1"/>
-      <c r="B281" s="3"/>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="1"/>
-      <c r="B282" s="3"/>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="1"/>
-      <c r="B283" s="3"/>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="1"/>
-      <c r="B284" s="3"/>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="1"/>
-      <c r="B285" s="3"/>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="1"/>
-      <c r="B286" s="3"/>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="1"/>
-      <c r="B287" s="3"/>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="1"/>
-      <c r="B288" s="3"/>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="1"/>
-      <c r="B289" s="3"/>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="1"/>
-      <c r="B290" s="3"/>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="1"/>
-      <c r="B291" s="3"/>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="1"/>
-      <c r="B292" s="3"/>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="1"/>
-      <c r="B293" s="3"/>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="1"/>
-      <c r="B294" s="3"/>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="1"/>
-      <c r="B295" s="3"/>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="1"/>
-      <c r="B296" s="3"/>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="1"/>
-      <c r="B297" s="3"/>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="1"/>
-      <c r="B298" s="3"/>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="1"/>
-      <c r="B299" s="3"/>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="1"/>
-      <c r="B300" s="3"/>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="1"/>
-      <c r="B301" s="3"/>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="1"/>
-      <c r="B302" s="3"/>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="1"/>
-      <c r="B303" s="3"/>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="1"/>
-      <c r="B304" s="3"/>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="1"/>
-      <c r="B305" s="3"/>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="1"/>
-      <c r="B306" s="3"/>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="1"/>
-      <c r="B307" s="3"/>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="1"/>
-      <c r="B308" s="3"/>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="1"/>
-      <c r="B309" s="3"/>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="1"/>
-      <c r="B310" s="3"/>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" s="1"/>
-      <c r="B311" s="3"/>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="1"/>
-      <c r="B312" s="3"/>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="1"/>
-      <c r="B313" s="3"/>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="1"/>
-      <c r="B314" s="3"/>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>41828.333333333336</v>
+      </c>
+      <c r="B192" s="3">
+        <v>191</v>
+      </c>
+      <c r="C192">
+        <v>59</v>
+      </c>
+      <c r="D192">
+        <v>67.0683333333333</v>
+      </c>
+      <c r="E192">
+        <v>68.274999999999906</v>
+      </c>
+      <c r="F192">
+        <v>67.581666666666607</v>
+      </c>
+      <c r="G192">
+        <v>66.499999999999901</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>41828.375</v>
+      </c>
+      <c r="B193" s="3">
+        <v>192</v>
+      </c>
+      <c r="C193">
+        <v>61.433333333333302</v>
+      </c>
+      <c r="D193">
+        <v>66.591666666666697</v>
+      </c>
+      <c r="E193">
+        <v>68</v>
+      </c>
+      <c r="F193">
+        <v>67.319999999999993</v>
+      </c>
+      <c r="G193">
+        <v>66.499999999999901</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>41828.416666666664</v>
+      </c>
+      <c r="B194" s="3">
+        <v>193</v>
+      </c>
+      <c r="C194">
+        <v>64</v>
+      </c>
+      <c r="D194">
+        <v>66.204999999999899</v>
+      </c>
+      <c r="E194">
+        <v>68</v>
+      </c>
+      <c r="F194">
+        <v>67.071666666666601</v>
+      </c>
+      <c r="G194">
+        <v>66.491666666666603</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>41828.458333333336</v>
+      </c>
+      <c r="B195" s="3">
+        <v>194</v>
+      </c>
+      <c r="C195">
+        <v>66</v>
+      </c>
+      <c r="D195">
+        <v>65.798333333333204</v>
+      </c>
+      <c r="E195">
+        <v>68</v>
+      </c>
+      <c r="F195">
+        <v>66.831666666666493</v>
+      </c>
+      <c r="G195">
+        <v>66.499999999999901</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>41828.5</v>
+      </c>
+      <c r="B196" s="3">
+        <v>195</v>
+      </c>
+      <c r="C196">
+        <v>67</v>
+      </c>
+      <c r="D196">
+        <v>65.926666666666605</v>
+      </c>
+      <c r="E196">
+        <v>68</v>
+      </c>
+      <c r="F196">
+        <v>66.62</v>
+      </c>
+      <c r="G196">
+        <v>66.466666666666598</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>41828.541666666664</v>
+      </c>
+      <c r="B197" s="3">
+        <v>196</v>
+      </c>
+      <c r="C197">
+        <v>67</v>
+      </c>
+      <c r="D197">
+        <v>66.179999999999893</v>
+      </c>
+      <c r="E197">
+        <v>67.991666666666603</v>
+      </c>
+      <c r="F197">
+        <v>66.438333333333404</v>
+      </c>
+      <c r="G197">
+        <v>66.411666666666605</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>41828.583333333336</v>
+      </c>
+      <c r="B198" s="3">
+        <v>197</v>
+      </c>
+      <c r="C198">
+        <v>67</v>
+      </c>
+      <c r="D198">
+        <v>66.184999999999903</v>
+      </c>
+      <c r="E198">
+        <v>67.658333333333303</v>
+      </c>
+      <c r="F198">
+        <v>66.249999999999901</v>
+      </c>
+      <c r="G198">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>41828.625</v>
+      </c>
+      <c r="B199" s="3">
+        <v>198</v>
+      </c>
+      <c r="C199">
+        <v>67</v>
+      </c>
+      <c r="D199">
+        <v>65.031666666666595</v>
+      </c>
+      <c r="E199">
+        <v>67.5</v>
+      </c>
+      <c r="F199">
+        <v>66.126666666666594</v>
+      </c>
+      <c r="G199">
+        <v>66.394999999999996</v>
+      </c>
+      <c r="H199">
+        <v>225.043374999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>41828.666666666664</v>
+      </c>
+      <c r="B200" s="3">
+        <v>199</v>
+      </c>
+      <c r="C200">
+        <v>66</v>
+      </c>
+      <c r="D200">
+        <v>61.616666666666603</v>
+      </c>
+      <c r="E200">
+        <v>67.5</v>
+      </c>
+      <c r="F200">
+        <v>66.238333333333202</v>
+      </c>
+      <c r="G200">
+        <v>66.38</v>
+      </c>
+      <c r="H200">
+        <v>245.86855</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>41828.708333333336</v>
+      </c>
+      <c r="B201" s="3">
+        <v>200</v>
+      </c>
+      <c r="C201">
+        <v>65</v>
+      </c>
+      <c r="D201">
+        <v>63.823333333333302</v>
+      </c>
+      <c r="E201">
+        <v>67.5</v>
+      </c>
+      <c r="F201">
+        <v>66.561666666666596</v>
+      </c>
+      <c r="G201">
+        <v>66.373333333333306</v>
+      </c>
+      <c r="H201">
+        <v>246.30793333333301</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>41828.75</v>
+      </c>
+      <c r="B202" s="3">
+        <v>201</v>
+      </c>
+      <c r="C202">
+        <v>64</v>
+      </c>
+      <c r="D202">
+        <v>65.808333333333294</v>
+      </c>
+      <c r="E202">
+        <v>67.558333333333294</v>
+      </c>
+      <c r="F202">
+        <v>67.029999999999902</v>
+      </c>
+      <c r="G202">
+        <v>66.233333333333306</v>
+      </c>
+      <c r="H202">
+        <v>243.84006666666599</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>41828.791666666664</v>
+      </c>
+      <c r="B203" s="3">
+        <v>202</v>
+      </c>
+      <c r="C203">
+        <v>60</v>
+      </c>
+      <c r="D203">
+        <v>67.783333333333303</v>
+      </c>
+      <c r="E203">
+        <v>67.941666666666606</v>
+      </c>
+      <c r="F203">
+        <v>67.511666666666599</v>
+      </c>
+      <c r="G203">
+        <v>66.221666666666593</v>
+      </c>
+      <c r="H203">
+        <v>245.33966666666601</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>41828.833333333336</v>
+      </c>
+      <c r="B204" s="3">
+        <v>203</v>
+      </c>
+      <c r="C204">
+        <v>58</v>
+      </c>
+      <c r="D204">
+        <v>68.09</v>
+      </c>
+      <c r="E204">
+        <v>68</v>
+      </c>
+      <c r="F204">
+        <v>67.888333333333307</v>
+      </c>
+      <c r="G204">
+        <v>66.228333333333296</v>
+      </c>
+      <c r="H204">
+        <v>244.88141666666601</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>41828.875</v>
+      </c>
+      <c r="B205" s="3">
+        <v>204</v>
+      </c>
+      <c r="C205">
+        <v>57.3</v>
+      </c>
+      <c r="D205">
+        <v>68.983333333333306</v>
+      </c>
+      <c r="E205">
+        <v>68</v>
+      </c>
+      <c r="F205">
+        <v>68.226666666666702</v>
+      </c>
+      <c r="G205">
+        <v>66.224999999999994</v>
+      </c>
+      <c r="H205">
+        <v>272.80473333333299</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>41828.916666666664</v>
+      </c>
+      <c r="B206" s="3">
+        <v>205</v>
+      </c>
+      <c r="C206">
+        <v>57</v>
+      </c>
+      <c r="D206">
+        <v>69.323333333333295</v>
+      </c>
+      <c r="E206">
+        <v>68.0833333333333</v>
+      </c>
+      <c r="F206">
+        <v>68.528333333333194</v>
+      </c>
+      <c r="G206">
+        <v>66.224999999999994</v>
+      </c>
+      <c r="H206">
+        <v>259.78320000000002</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>41828.958333333336</v>
+      </c>
+      <c r="B207" s="3">
+        <v>206</v>
+      </c>
+      <c r="C207">
+        <v>58</v>
+      </c>
+      <c r="D207">
+        <v>69.6666666666666</v>
+      </c>
+      <c r="E207">
+        <v>68.499999999999901</v>
+      </c>
+      <c r="F207">
+        <v>68.778333333333293</v>
+      </c>
+      <c r="G207">
+        <v>66.301666666666605</v>
+      </c>
+      <c r="H207">
+        <v>276.77645000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>41829</v>
+      </c>
+      <c r="B208" s="3">
+        <v>207</v>
+      </c>
+      <c r="C208">
+        <v>57</v>
+      </c>
+      <c r="D208">
+        <v>69.038333333333298</v>
+      </c>
+      <c r="E208">
+        <v>68.499999999999901</v>
+      </c>
+      <c r="F208">
+        <v>68.971666666666593</v>
+      </c>
+      <c r="G208">
+        <v>66.353333333333296</v>
+      </c>
+      <c r="H208">
+        <v>259.56560000000002</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>41829.041666666664</v>
+      </c>
+      <c r="B209" s="3">
+        <v>208</v>
+      </c>
+      <c r="C209">
+        <v>57</v>
+      </c>
+      <c r="D209">
+        <v>67.7766666666666</v>
+      </c>
+      <c r="E209">
+        <v>68.591666666666598</v>
+      </c>
+      <c r="F209">
+        <v>69.094999999999899</v>
+      </c>
+      <c r="G209">
+        <v>66.396666666666604</v>
+      </c>
+      <c r="H209">
+        <v>257.80399999999997</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>41829.083333333336</v>
+      </c>
+      <c r="B210" s="3">
+        <v>209</v>
+      </c>
+      <c r="C210">
+        <v>58</v>
+      </c>
+      <c r="D210">
+        <v>68.028333333333293</v>
+      </c>
+      <c r="E210">
+        <v>68.999999999999901</v>
+      </c>
+      <c r="F210">
+        <v>69.193333333333399</v>
+      </c>
+      <c r="G210">
+        <v>66.446666666666601</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>41829.125</v>
+      </c>
+      <c r="B211" s="3">
+        <v>210</v>
+      </c>
+      <c r="C211">
+        <v>58</v>
+      </c>
+      <c r="D211">
+        <v>68.959999999999994</v>
+      </c>
+      <c r="E211">
+        <v>68.999999999999901</v>
+      </c>
+      <c r="F211">
+        <v>69.178333333333299</v>
+      </c>
+      <c r="G211">
+        <v>66.499999999999901</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>41829.166666666664</v>
+      </c>
+      <c r="B212" s="3">
+        <v>211</v>
+      </c>
+      <c r="C212">
+        <v>58</v>
+      </c>
+      <c r="D212">
+        <v>69.346666666666593</v>
+      </c>
+      <c r="E212">
+        <v>68.974999999999895</v>
+      </c>
+      <c r="F212">
+        <v>68.956666666666607</v>
+      </c>
+      <c r="G212">
+        <v>66.524999999999906</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>41829.208333333336</v>
+      </c>
+      <c r="B213" s="3">
+        <v>212</v>
+      </c>
+      <c r="C213">
+        <v>59</v>
+      </c>
+      <c r="D213">
+        <v>69.430000000000007</v>
+      </c>
+      <c r="E213">
+        <v>68.641666666666595</v>
+      </c>
+      <c r="F213">
+        <v>68.703333333333305</v>
+      </c>
+      <c r="G213">
+        <v>66.571666666666601</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>41829.25</v>
+      </c>
+      <c r="B214" s="3">
+        <v>213</v>
+      </c>
+      <c r="C214">
+        <v>59</v>
+      </c>
+      <c r="D214">
+        <v>69.084999999999894</v>
+      </c>
+      <c r="E214">
+        <v>68.499999999999901</v>
+      </c>
+      <c r="F214">
+        <v>68.398333333333298</v>
+      </c>
+      <c r="G214">
+        <v>66.591666666666598</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>41829.291666666664</v>
+      </c>
+      <c r="B215" s="3">
+        <v>214</v>
+      </c>
+      <c r="C215">
+        <v>59</v>
+      </c>
+      <c r="D215">
+        <v>68.501666666666694</v>
+      </c>
+      <c r="E215">
+        <v>68.499999999999901</v>
+      </c>
+      <c r="F215">
+        <v>68.148333333333298</v>
+      </c>
+      <c r="G215">
+        <v>66.624999999999901</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>41829.333333333336</v>
+      </c>
+      <c r="B216" s="3">
+        <v>215</v>
+      </c>
+      <c r="C216">
+        <v>60</v>
+      </c>
+      <c r="D216">
+        <v>67.623333333333306</v>
+      </c>
+      <c r="E216">
+        <v>68.499999999999901</v>
+      </c>
+      <c r="F216">
+        <v>67.928333333333299</v>
+      </c>
+      <c r="G216">
+        <v>66.671666666666596</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>41829.375</v>
+      </c>
+      <c r="B217" s="3">
+        <v>216</v>
+      </c>
+      <c r="C217">
+        <v>63</v>
+      </c>
+      <c r="D217">
+        <v>67.129999999999896</v>
+      </c>
+      <c r="E217">
+        <v>68.499999999999901</v>
+      </c>
+      <c r="F217">
+        <v>67.6933333333332</v>
+      </c>
+      <c r="G217">
+        <v>66.67</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>41829.416666666664</v>
+      </c>
+      <c r="B218" s="3">
+        <v>217</v>
+      </c>
+      <c r="C218">
+        <v>64</v>
+      </c>
+      <c r="D218">
+        <v>66.766666666666595</v>
+      </c>
+      <c r="E218">
+        <v>68.499999999999901</v>
+      </c>
+      <c r="F218">
+        <v>67.501666666666694</v>
+      </c>
+      <c r="G218">
+        <v>66.688333333333304</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>41829.458333333336</v>
+      </c>
+      <c r="B219" s="3">
+        <v>218</v>
+      </c>
+      <c r="C219">
+        <v>70</v>
+      </c>
+      <c r="D219">
+        <v>66.474999999999994</v>
+      </c>
+      <c r="E219">
+        <v>68.499999999999901</v>
+      </c>
+      <c r="F219">
+        <v>67.305000000000007</v>
+      </c>
+      <c r="G219">
+        <v>66.683333333333294</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>41829.5</v>
+      </c>
+      <c r="B220" s="3">
+        <v>219</v>
+      </c>
+      <c r="C220">
+        <v>70</v>
+      </c>
+      <c r="D220">
+        <v>66.244999999999905</v>
+      </c>
+      <c r="E220">
+        <v>68.224999999999994</v>
+      </c>
+      <c r="F220">
+        <v>67.128333333333302</v>
+      </c>
+      <c r="G220">
+        <v>66.636666666666599</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>41829.541666666664</v>
+      </c>
+      <c r="B221" s="3">
+        <v>220</v>
+      </c>
+      <c r="C221">
+        <v>70</v>
+      </c>
+      <c r="D221">
+        <v>66.081666666666607</v>
+      </c>
+      <c r="E221">
+        <v>68</v>
+      </c>
+      <c r="F221">
+        <v>66.989999999999995</v>
+      </c>
+      <c r="G221">
+        <v>66.641666666666595</v>
+      </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>41829.583333333336</v>
+      </c>
+      <c r="B222" s="3">
+        <v>221</v>
+      </c>
+      <c r="C222">
+        <v>70</v>
+      </c>
+      <c r="D222">
+        <v>65.874999999999901</v>
+      </c>
+      <c r="E222">
+        <v>68</v>
+      </c>
+      <c r="F222">
+        <v>66.831666666666493</v>
+      </c>
+      <c r="G222">
+        <v>66.616666666666603</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>41829.625</v>
+      </c>
+      <c r="B223" s="3">
+        <v>222</v>
+      </c>
+      <c r="C223">
+        <v>69</v>
+      </c>
+      <c r="D223">
+        <v>61.519999999999897</v>
+      </c>
+      <c r="E223">
+        <v>68</v>
+      </c>
+      <c r="F223">
+        <v>66.736666666666594</v>
+      </c>
+      <c r="G223">
+        <v>66.571666666666601</v>
+      </c>
+      <c r="H223">
+        <v>232.318733333333</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>41829.666666666664</v>
+      </c>
+      <c r="B224" s="3">
+        <v>223</v>
+      </c>
+      <c r="C224">
+        <v>67</v>
+      </c>
+      <c r="D224">
+        <v>61.574999999999903</v>
+      </c>
+      <c r="E224">
+        <v>68</v>
+      </c>
+      <c r="F224">
+        <v>66.703333333333205</v>
+      </c>
+      <c r="G224">
+        <v>66.578333333333305</v>
+      </c>
+      <c r="H224">
+        <v>239.11701666666599</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>41829.708333333336</v>
+      </c>
+      <c r="B225" s="3">
+        <v>224</v>
+      </c>
+      <c r="C225">
+        <v>67</v>
+      </c>
+      <c r="D225">
+        <v>63.211666666666602</v>
+      </c>
+      <c r="E225">
+        <v>68</v>
+      </c>
+      <c r="F225">
+        <v>66.849999999999994</v>
+      </c>
+      <c r="G225">
+        <v>66.516666666666595</v>
+      </c>
+      <c r="H225">
+        <v>245.699516666666</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>41829.75</v>
+      </c>
+      <c r="B226" s="3">
+        <v>225</v>
+      </c>
+      <c r="C226">
+        <v>66</v>
+      </c>
+      <c r="D226">
+        <v>65.723333333333301</v>
+      </c>
+      <c r="E226">
+        <v>68</v>
+      </c>
+      <c r="F226">
+        <v>67.268333333333302</v>
+      </c>
+      <c r="G226">
+        <v>66.486666666666594</v>
+      </c>
+      <c r="H226">
+        <v>248.65136666666601</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>41829.791666666664</v>
+      </c>
+      <c r="B227" s="3">
+        <v>226</v>
+      </c>
+      <c r="C227">
+        <v>63</v>
+      </c>
+      <c r="D227">
+        <v>67.44</v>
+      </c>
+      <c r="E227">
+        <v>68</v>
+      </c>
+      <c r="F227">
+        <v>67.823333333333295</v>
+      </c>
+      <c r="G227">
+        <v>66.461666666666602</v>
+      </c>
+      <c r="H227">
+        <v>250.091716666666</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>41829.833333333336</v>
+      </c>
+      <c r="B228" s="3">
+        <v>227</v>
+      </c>
+      <c r="C228">
+        <v>60</v>
+      </c>
+      <c r="D228">
+        <v>68.591666666666598</v>
+      </c>
+      <c r="E228">
+        <v>68.1666666666666</v>
+      </c>
+      <c r="F228">
+        <v>68.251666666666694</v>
+      </c>
+      <c r="G228">
+        <v>66.433333333333294</v>
+      </c>
+      <c r="H228">
+        <v>266.00074999999998</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>41829.875</v>
+      </c>
+      <c r="B229" s="3">
+        <v>228</v>
+      </c>
+      <c r="C229">
+        <v>59</v>
+      </c>
+      <c r="D229">
+        <v>70.228333333333296</v>
+      </c>
+      <c r="E229">
+        <v>68.499999999999901</v>
+      </c>
+      <c r="F229">
+        <v>68.501666666666594</v>
+      </c>
+      <c r="G229">
+        <v>66.441666666666606</v>
+      </c>
+      <c r="H229">
+        <v>235.34059833333299</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>41829.916666666664</v>
+      </c>
+      <c r="B230" s="3">
+        <v>229</v>
+      </c>
+      <c r="C230">
+        <v>59</v>
+      </c>
+      <c r="D230">
+        <v>72.141666666666595</v>
+      </c>
+      <c r="E230">
+        <v>68.566666666666606</v>
+      </c>
+      <c r="F230">
+        <v>68.6933333333333</v>
+      </c>
+      <c r="G230">
+        <v>66.471666666666593</v>
+      </c>
+      <c r="H230">
+        <v>265.43115</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>41829.958333333336</v>
+      </c>
+      <c r="B231" s="3">
+        <v>230</v>
+      </c>
+      <c r="C231">
+        <v>60</v>
+      </c>
+      <c r="D231">
+        <v>72.836666666666702</v>
+      </c>
+      <c r="E231">
+        <v>68.999999999999901</v>
+      </c>
+      <c r="F231">
+        <v>68.881666666666703</v>
+      </c>
+      <c r="G231">
+        <v>66.491666666666603</v>
+      </c>
+      <c r="H231">
+        <v>263.82133333333297</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>41830</v>
+      </c>
+      <c r="B232" s="3">
+        <v>231</v>
+      </c>
+      <c r="C232">
+        <v>60</v>
+      </c>
+      <c r="D232">
+        <v>71.984999999999999</v>
+      </c>
+      <c r="E232">
+        <v>69.216666666666598</v>
+      </c>
+      <c r="F232">
+        <v>69.113333333333301</v>
+      </c>
+      <c r="G232">
+        <v>66.584999999999894</v>
+      </c>
+      <c r="H232">
+        <v>261.33553333333299</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>41830.041666666664</v>
+      </c>
+      <c r="B233" s="3">
+        <v>232</v>
+      </c>
+      <c r="C233">
+        <v>60</v>
+      </c>
+      <c r="D233">
+        <v>70.369999999999905</v>
+      </c>
+      <c r="E233">
+        <v>69.491666666666603</v>
+      </c>
+      <c r="F233">
+        <v>69.286666666666605</v>
+      </c>
+      <c r="G233">
+        <v>66.641666666666595</v>
+      </c>
+      <c r="H233">
+        <v>256.30007833333298</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>41830.083333333336</v>
+      </c>
+      <c r="B234" s="3">
+        <v>233</v>
+      </c>
+      <c r="C234">
+        <v>60</v>
+      </c>
+      <c r="D234">
+        <v>69.821666666666601</v>
+      </c>
+      <c r="E234">
+        <v>69.499999999999901</v>
+      </c>
+      <c r="F234">
+        <v>69.423333333333204</v>
+      </c>
+      <c r="G234">
+        <v>66.691666666666606</v>
+      </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>41830.125</v>
+      </c>
+      <c r="B235" s="3">
+        <v>234</v>
+      </c>
+      <c r="C235">
+        <v>60</v>
+      </c>
+      <c r="D235">
+        <v>69.959999999999894</v>
+      </c>
+      <c r="E235">
+        <v>69.499999999999901</v>
+      </c>
+      <c r="F235">
+        <v>69.435000000000002</v>
+      </c>
+      <c r="G235">
+        <v>66.738333333333301</v>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>41830.166666666664</v>
+      </c>
+      <c r="B236" s="3">
+        <v>235</v>
+      </c>
+      <c r="C236">
+        <v>60</v>
+      </c>
+      <c r="D236">
+        <v>69.891666666666595</v>
+      </c>
+      <c r="E236">
+        <v>69.474999999999895</v>
+      </c>
+      <c r="F236">
+        <v>69.204999999999998</v>
+      </c>
+      <c r="G236">
+        <v>66.799999999999898</v>
+      </c>
+      <c r="H236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>41830.208333333336</v>
+      </c>
+      <c r="B237" s="3">
+        <v>236</v>
+      </c>
+      <c r="C237">
+        <v>60</v>
+      </c>
+      <c r="D237">
+        <v>69.6933333333333</v>
+      </c>
+      <c r="E237">
+        <v>69.183333333333294</v>
+      </c>
+      <c r="F237">
+        <v>68.86</v>
+      </c>
+      <c r="G237">
+        <v>66.799999999999898</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>41830.25</v>
+      </c>
+      <c r="B238" s="3">
+        <v>237</v>
+      </c>
+      <c r="C238">
+        <v>61</v>
+      </c>
+      <c r="D238">
+        <v>69.37</v>
+      </c>
+      <c r="E238">
+        <v>68.999999999999901</v>
+      </c>
+      <c r="F238">
+        <v>68.503333333333302</v>
+      </c>
+      <c r="G238">
+        <v>66.799999999999898</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>41830.291666666664</v>
+      </c>
+      <c r="B239" s="3">
+        <v>238</v>
+      </c>
+      <c r="C239">
+        <v>61</v>
+      </c>
+      <c r="D239">
+        <v>68.853333333333296</v>
+      </c>
+      <c r="E239">
+        <v>68.999999999999901</v>
+      </c>
+      <c r="F239">
+        <v>68.204999999999998</v>
+      </c>
+      <c r="G239">
+        <v>66.808333333333294</v>
+      </c>
+      <c r="H239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>41830.333333333336</v>
+      </c>
+      <c r="B240" s="3">
+        <v>239</v>
+      </c>
+      <c r="C240">
+        <v>62.3</v>
+      </c>
+      <c r="D240">
+        <v>68.02</v>
+      </c>
+      <c r="E240">
+        <v>68.999999999999901</v>
+      </c>
+      <c r="F240">
+        <v>67.964999999999904</v>
+      </c>
+      <c r="G240">
+        <v>66.8333333333333</v>
+      </c>
+      <c r="H240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>41830.375</v>
+      </c>
+      <c r="B241" s="3">
+        <v>240</v>
+      </c>
+      <c r="C241">
+        <v>63.599999999999902</v>
+      </c>
+      <c r="D241">
+        <v>67.52</v>
+      </c>
+      <c r="E241">
+        <v>68.716666666666598</v>
+      </c>
+      <c r="F241">
+        <v>67.756666666666504</v>
+      </c>
+      <c r="G241">
+        <v>66.841666666666598</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>41830.416666666664</v>
+      </c>
+      <c r="B242" s="3">
+        <v>241</v>
+      </c>
+      <c r="C242">
+        <v>66.033333333333303</v>
+      </c>
+      <c r="D242">
+        <v>67.1933333333333</v>
+      </c>
+      <c r="E242">
+        <v>68.499999999999901</v>
+      </c>
+      <c r="F242">
+        <v>67.613333333333202</v>
+      </c>
+      <c r="G242">
+        <v>66.824999999999903</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>41830.458333333336</v>
+      </c>
+      <c r="B243" s="3">
+        <v>242</v>
+      </c>
+      <c r="C243">
+        <v>68</v>
+      </c>
+      <c r="D243">
+        <v>66.97</v>
+      </c>
+      <c r="E243">
+        <v>68.499999999999901</v>
+      </c>
+      <c r="F243">
+        <v>67.435000000000002</v>
+      </c>
+      <c r="G243">
+        <v>66.799999999999898</v>
+      </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>41830.5</v>
+      </c>
+      <c r="B244" s="3">
+        <v>243</v>
+      </c>
+      <c r="C244">
+        <v>72</v>
+      </c>
+      <c r="D244">
+        <v>66.706666666666607</v>
+      </c>
+      <c r="E244">
+        <v>68.499999999999901</v>
+      </c>
+      <c r="F244">
+        <v>67.316666666666706</v>
+      </c>
+      <c r="G244">
+        <v>66.799999999999898</v>
+      </c>
+      <c r="H244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>41830.541666666664</v>
+      </c>
+      <c r="B245" s="3">
+        <v>244</v>
+      </c>
+      <c r="C245">
+        <v>72</v>
+      </c>
+      <c r="D245">
+        <v>66.699999999999903</v>
+      </c>
+      <c r="E245">
+        <v>68.499999999999901</v>
+      </c>
+      <c r="F245">
+        <v>67.16</v>
+      </c>
+      <c r="G245">
+        <v>66.799999999999898</v>
+      </c>
+      <c r="H245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>41830.583333333336</v>
+      </c>
+      <c r="B246" s="3">
+        <v>245</v>
+      </c>
+      <c r="C246">
+        <v>72</v>
+      </c>
+      <c r="D246">
+        <v>67.118333333333197</v>
+      </c>
+      <c r="E246">
+        <v>68.499999999999901</v>
+      </c>
+      <c r="F246">
+        <v>67.054999999999893</v>
+      </c>
+      <c r="G246">
+        <v>66.799999999999898</v>
+      </c>
+      <c r="H246">
+        <v>0.80350333333333301</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>41830.625</v>
+      </c>
+      <c r="B247" s="3">
+        <v>246</v>
+      </c>
+      <c r="C247">
+        <v>72</v>
+      </c>
+      <c r="D247">
+        <v>63.298333333333296</v>
+      </c>
+      <c r="E247">
+        <v>68.008333333333297</v>
+      </c>
+      <c r="F247">
+        <v>67</v>
+      </c>
+      <c r="G247">
+        <v>66.761666666666599</v>
+      </c>
+      <c r="H247">
+        <v>227.23842833333299</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>41830.666666666664</v>
+      </c>
+      <c r="B248" s="3">
+        <v>247</v>
+      </c>
+      <c r="C248">
+        <v>69</v>
+      </c>
+      <c r="D248">
+        <v>62.1099999999999</v>
+      </c>
+      <c r="E248">
+        <v>68</v>
+      </c>
+      <c r="F248">
+        <v>66.989999999999995</v>
+      </c>
+      <c r="G248">
+        <v>66.746666666666599</v>
+      </c>
+      <c r="H248">
+        <v>245.72929999999999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>41830.708333333336</v>
+      </c>
+      <c r="B249" s="3">
+        <v>248</v>
+      </c>
+      <c r="C249">
+        <v>68</v>
+      </c>
+      <c r="D249">
+        <v>64.241666666666603</v>
+      </c>
+      <c r="E249">
+        <v>68</v>
+      </c>
+      <c r="F249">
+        <v>67.069999999999894</v>
+      </c>
+      <c r="G249">
+        <v>66.736666666666594</v>
+      </c>
+      <c r="H249">
+        <v>250.41685000000001</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>41830.75</v>
+      </c>
+      <c r="B250" s="3">
+        <v>249</v>
+      </c>
+      <c r="C250">
+        <v>67</v>
+      </c>
+      <c r="D250">
+        <v>67.101666666666603</v>
+      </c>
+      <c r="E250">
+        <v>68</v>
+      </c>
+      <c r="F250">
+        <v>67.483333333333206</v>
+      </c>
+      <c r="G250">
+        <v>66.649999999999906</v>
+      </c>
+      <c r="H250">
+        <v>249.07831666666601</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>41830.791666666664</v>
+      </c>
+      <c r="B251" s="3">
+        <v>250</v>
+      </c>
+      <c r="C251">
+        <v>64</v>
+      </c>
+      <c r="D251">
+        <v>70.163333333333298</v>
+      </c>
+      <c r="E251">
+        <v>68.466666666666598</v>
+      </c>
+      <c r="F251">
+        <v>68</v>
+      </c>
+      <c r="G251">
+        <v>66.616666666666603</v>
+      </c>
+      <c r="H251">
+        <v>247.77869999999999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>41830.833333333336</v>
+      </c>
+      <c r="B252" s="3">
+        <v>251</v>
+      </c>
+      <c r="C252">
+        <v>63</v>
+      </c>
+      <c r="D252">
+        <v>71.9016666666666</v>
+      </c>
+      <c r="E252">
+        <v>68.499999999999901</v>
+      </c>
+      <c r="F252">
+        <v>68.458333333333201</v>
+      </c>
+      <c r="G252">
+        <v>66.674999999999997</v>
+      </c>
+      <c r="H252">
+        <v>254.07278333333301</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>41830.875</v>
+      </c>
+      <c r="B253" s="3">
+        <v>252</v>
+      </c>
+      <c r="C253">
+        <v>62.966666666666598</v>
+      </c>
+      <c r="D253">
+        <v>72.981666666666598</v>
+      </c>
+      <c r="E253">
+        <v>68.941666666666606</v>
+      </c>
+      <c r="F253">
+        <v>68.825000000000003</v>
+      </c>
+      <c r="G253">
+        <v>66.641666666666595</v>
+      </c>
+      <c r="H253">
+        <v>256.91238333333303</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>41830.916666666664</v>
+      </c>
+      <c r="B254" s="3">
+        <v>253</v>
+      </c>
+      <c r="C254">
+        <v>62</v>
+      </c>
+      <c r="D254">
+        <v>73.088333333333296</v>
+      </c>
+      <c r="E254">
+        <v>69.099999999999895</v>
+      </c>
+      <c r="F254">
+        <v>69.165000000000006</v>
+      </c>
+      <c r="G254">
+        <v>66.658333333333303</v>
+      </c>
+      <c r="H254">
+        <v>256.86261666666599</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>41830.958333333336</v>
+      </c>
+      <c r="B255" s="3">
+        <v>254</v>
+      </c>
+      <c r="C255">
+        <v>62</v>
+      </c>
+      <c r="D255">
+        <v>72.606666666666598</v>
+      </c>
+      <c r="E255">
+        <v>69.499999999999901</v>
+      </c>
+      <c r="F255">
+        <v>69.449999999999903</v>
+      </c>
+      <c r="G255">
+        <v>66.713333333333296</v>
+      </c>
+      <c r="H255">
+        <v>254.536133333333</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>41831</v>
+      </c>
+      <c r="B256" s="3">
+        <v>255</v>
+      </c>
+      <c r="C256">
+        <v>63</v>
+      </c>
+      <c r="D256">
+        <v>70.2766666666666</v>
+      </c>
+      <c r="E256">
+        <v>69.499999999999901</v>
+      </c>
+      <c r="F256">
+        <v>69.638333333333307</v>
+      </c>
+      <c r="G256">
+        <v>66.758333333333297</v>
+      </c>
+      <c r="H256">
+        <v>263.40134999999998</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>41831.041666666664</v>
+      </c>
+      <c r="B257" s="3">
+        <v>256</v>
+      </c>
+      <c r="C257">
+        <v>62</v>
+      </c>
+      <c r="D257">
+        <v>68.716666666666598</v>
+      </c>
+      <c r="E257">
+        <v>69.499999999999901</v>
+      </c>
+      <c r="F257">
+        <v>69.813333333333304</v>
+      </c>
+      <c r="G257">
+        <v>66.825000000000003</v>
+      </c>
+      <c r="H257">
+        <v>245.05907833333299</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>41831.083333333336</v>
+      </c>
+      <c r="B258" s="3">
+        <v>257</v>
+      </c>
+      <c r="C258">
+        <v>61</v>
+      </c>
+      <c r="D258">
+        <v>69.206666666666607</v>
+      </c>
+      <c r="E258">
+        <v>69.5416666666666</v>
+      </c>
+      <c r="F258">
+        <v>69.946666666666601</v>
+      </c>
+      <c r="G258">
+        <v>66.918333333333294</v>
+      </c>
+      <c r="H258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>41831.125</v>
+      </c>
+      <c r="B259" s="3">
+        <v>258</v>
+      </c>
+      <c r="C259">
+        <v>61.233333333333299</v>
+      </c>
+      <c r="D259">
+        <v>70.198333333333295</v>
+      </c>
+      <c r="E259">
+        <v>69.499999999999901</v>
+      </c>
+      <c r="F259">
+        <v>69.998333333333306</v>
+      </c>
+      <c r="G259">
+        <v>67</v>
+      </c>
+      <c r="H259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>41831.166666666664</v>
+      </c>
+      <c r="B260" s="3">
+        <v>259</v>
+      </c>
+      <c r="C260">
+        <v>61</v>
+      </c>
+      <c r="D260">
+        <v>70.491666666666504</v>
+      </c>
+      <c r="E260">
+        <v>69.499999999999901</v>
+      </c>
+      <c r="F260">
+        <v>69.823333333333295</v>
+      </c>
+      <c r="G260">
+        <v>67</v>
+      </c>
+      <c r="H260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>41831.208333333336</v>
+      </c>
+      <c r="B261" s="3">
+        <v>260</v>
+      </c>
+      <c r="C261">
+        <v>61</v>
+      </c>
+      <c r="D261">
+        <v>70.553333333333299</v>
+      </c>
+      <c r="E261">
+        <v>69.499999999999901</v>
+      </c>
+      <c r="F261">
+        <v>69.516666666666595</v>
+      </c>
+      <c r="G261">
+        <v>67.055000000000007</v>
+      </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>41831.25</v>
+      </c>
+      <c r="B262" s="3">
+        <v>261</v>
+      </c>
+      <c r="C262">
+        <v>61</v>
+      </c>
+      <c r="D262">
+        <v>70.499999999999901</v>
+      </c>
+      <c r="E262">
+        <v>69.499999999999901</v>
+      </c>
+      <c r="F262">
+        <v>69.181666666666601</v>
+      </c>
+      <c r="G262">
+        <v>67.091666666666598</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>41831.291666666664</v>
+      </c>
+      <c r="B263" s="3">
+        <v>262</v>
+      </c>
+      <c r="C263">
+        <v>62</v>
+      </c>
+      <c r="D263">
+        <v>70.413333333333298</v>
+      </c>
+      <c r="E263">
+        <v>69.499999999999901</v>
+      </c>
+      <c r="F263">
+        <v>68.891666666666595</v>
+      </c>
+      <c r="G263">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>41831.333333333336</v>
+      </c>
+      <c r="B264" s="3">
+        <v>263</v>
+      </c>
+      <c r="C264">
+        <v>63</v>
+      </c>
+      <c r="D264">
+        <v>70.193333333333399</v>
+      </c>
+      <c r="E264">
+        <v>69.491666666666603</v>
+      </c>
+      <c r="F264">
+        <v>68.663333333333199</v>
+      </c>
+      <c r="G264">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="H264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>41831.375</v>
+      </c>
+      <c r="B265" s="3">
+        <v>264</v>
+      </c>
+      <c r="C265">
+        <v>63</v>
+      </c>
+      <c r="D265">
+        <v>69.909999999999897</v>
+      </c>
+      <c r="E265">
+        <v>69.299999999999898</v>
+      </c>
+      <c r="F265">
+        <v>68.448333333333295</v>
+      </c>
+      <c r="G265">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>41831.416666666664</v>
+      </c>
+      <c r="B266" s="3">
+        <v>265</v>
+      </c>
+      <c r="C266">
+        <v>65</v>
+      </c>
+      <c r="D266">
+        <v>69.694999999999894</v>
+      </c>
+      <c r="E266">
+        <v>69.033333333333303</v>
+      </c>
+      <c r="F266">
+        <v>68.273333333333397</v>
+      </c>
+      <c r="G266">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="H266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>41831.458333333336</v>
+      </c>
+      <c r="B267" s="3">
+        <v>266</v>
+      </c>
+      <c r="C267">
+        <v>66.0833333333333</v>
+      </c>
+      <c r="D267">
+        <v>69.42</v>
+      </c>
+      <c r="E267">
+        <v>68.999999999999901</v>
+      </c>
+      <c r="F267">
+        <v>68.16</v>
+      </c>
+      <c r="G267">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>41831.5</v>
+      </c>
+      <c r="B268" s="3">
+        <v>267</v>
+      </c>
+      <c r="C268">
+        <v>69</v>
+      </c>
+      <c r="D268">
+        <v>69.136666666666599</v>
+      </c>
+      <c r="E268">
+        <v>68.999999999999901</v>
+      </c>
+      <c r="F268">
+        <v>67.983333333333306</v>
+      </c>
+      <c r="G268">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>41831.541666666664</v>
+      </c>
+      <c r="B269" s="3">
+        <v>268</v>
+      </c>
+      <c r="C269">
+        <v>70</v>
+      </c>
+      <c r="D269">
+        <v>68.878333333333302</v>
+      </c>
+      <c r="E269">
+        <v>68.741666666666603</v>
+      </c>
+      <c r="F269">
+        <v>67.855000000000004</v>
+      </c>
+      <c r="G269">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="H269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>41831.583333333336</v>
+      </c>
+      <c r="B270" s="3">
+        <v>269</v>
+      </c>
+      <c r="C270">
+        <v>70</v>
+      </c>
+      <c r="D270">
+        <v>68.603333333333197</v>
+      </c>
+      <c r="E270">
+        <v>68.508333333333198</v>
+      </c>
+      <c r="F270">
+        <v>67.684999999999903</v>
+      </c>
+      <c r="G270">
+        <v>67.05</v>
+      </c>
+      <c r="H270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>41831.625</v>
+      </c>
+      <c r="B271" s="3">
+        <v>270</v>
+      </c>
+      <c r="C271">
+        <v>69</v>
+      </c>
+      <c r="D271">
+        <v>63.2916666666666</v>
+      </c>
+      <c r="E271">
+        <v>68.499999999999901</v>
+      </c>
+      <c r="F271">
+        <v>67.579999999999899</v>
+      </c>
+      <c r="G271">
+        <v>67.025000000000006</v>
+      </c>
+      <c r="H271">
+        <v>224.95221000000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>41831.666666666664</v>
+      </c>
+      <c r="B272" s="3">
+        <v>271</v>
+      </c>
+      <c r="C272">
+        <v>68</v>
+      </c>
+      <c r="D272">
+        <v>61.298333333333296</v>
+      </c>
+      <c r="E272">
+        <v>68.499999999999901</v>
+      </c>
+      <c r="F272">
+        <v>67.438333333333304</v>
+      </c>
+      <c r="G272">
+        <v>67.036666666666605</v>
+      </c>
+      <c r="H272">
+        <v>251.98751666666601</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>41831.708333333336</v>
+      </c>
+      <c r="B273" s="3">
+        <v>272</v>
+      </c>
+      <c r="C273">
+        <v>68</v>
+      </c>
+      <c r="D273">
+        <v>63.008333333333297</v>
+      </c>
+      <c r="E273">
+        <v>68.499999999999901</v>
+      </c>
+      <c r="F273">
+        <v>67.441666666666606</v>
+      </c>
+      <c r="G273">
+        <v>66.991666666666603</v>
+      </c>
+      <c r="H273">
+        <v>251.072016666666</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>41831.75</v>
+      </c>
+      <c r="B274" s="3">
+        <v>273</v>
+      </c>
+      <c r="C274">
+        <v>67</v>
+      </c>
+      <c r="D274">
+        <v>66.478333333333296</v>
+      </c>
+      <c r="E274">
+        <v>68.499999999999901</v>
+      </c>
+      <c r="F274">
+        <v>67.763333333333307</v>
+      </c>
+      <c r="G274">
+        <v>66.906666666666595</v>
+      </c>
+      <c r="H274">
+        <v>249.85595000000001</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>41831.791666666664</v>
+      </c>
+      <c r="B275" s="3">
+        <v>274</v>
+      </c>
+      <c r="C275">
+        <v>64</v>
+      </c>
+      <c r="D275">
+        <v>67.873333333333306</v>
+      </c>
+      <c r="E275">
+        <v>68.499999999999901</v>
+      </c>
+      <c r="F275">
+        <v>68.324999999999903</v>
+      </c>
+      <c r="G275">
+        <v>66.849999999999994</v>
+      </c>
+      <c r="H275">
+        <v>247.11779999999999</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>41831.833333333336</v>
+      </c>
+      <c r="B276" s="3">
+        <v>275</v>
+      </c>
+      <c r="C276">
+        <v>63</v>
+      </c>
+      <c r="D276">
+        <v>69.616666666666603</v>
+      </c>
+      <c r="E276">
+        <v>68.574999999999903</v>
+      </c>
+      <c r="F276">
+        <v>68.84</v>
+      </c>
+      <c r="G276">
+        <v>66.824999999999903</v>
+      </c>
+      <c r="H276">
+        <v>256.42083333333301</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>41831.875</v>
+      </c>
+      <c r="B277" s="3">
+        <v>276</v>
+      </c>
+      <c r="C277">
+        <v>63</v>
+      </c>
+      <c r="D277">
+        <v>70.789999999999907</v>
+      </c>
+      <c r="E277">
+        <v>68.983333333333306</v>
+      </c>
+      <c r="F277">
+        <v>69.180000000000007</v>
+      </c>
+      <c r="G277">
+        <v>66.8333333333333</v>
+      </c>
+      <c r="H277">
+        <v>259.11711666666599</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>41831.916666666664</v>
+      </c>
+      <c r="B278" s="3">
+        <v>277</v>
+      </c>
+      <c r="C278">
+        <v>62</v>
+      </c>
+      <c r="D278">
+        <v>72.274999999999906</v>
+      </c>
+      <c r="E278">
+        <v>69.108333333333206</v>
+      </c>
+      <c r="F278">
+        <v>69.531666666666496</v>
+      </c>
+      <c r="G278">
+        <v>66.808333333333294</v>
+      </c>
+      <c r="H278">
+        <v>265.12483333333302</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>41831.958333333336</v>
+      </c>
+      <c r="B279" s="3">
+        <v>278</v>
+      </c>
+      <c r="C279">
+        <v>62</v>
+      </c>
+      <c r="D279">
+        <v>70.325000000000003</v>
+      </c>
+      <c r="E279">
+        <v>69.499999999999901</v>
+      </c>
+      <c r="F279">
+        <v>69.668333333333294</v>
+      </c>
+      <c r="G279">
+        <v>66.841666666666598</v>
+      </c>
+      <c r="H279">
+        <v>246.29003333333301</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>41832</v>
+      </c>
+      <c r="B280" s="3">
+        <v>279</v>
+      </c>
+      <c r="C280">
+        <v>62</v>
+      </c>
+      <c r="D280">
+        <v>68.499999999999901</v>
+      </c>
+      <c r="E280">
+        <v>69.499999999999901</v>
+      </c>
+      <c r="F280">
+        <v>69.801666666666605</v>
+      </c>
+      <c r="G280">
+        <v>66.926666666666605</v>
+      </c>
+      <c r="H280">
+        <v>266.65713333333298</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>41832.041666666664</v>
+      </c>
+      <c r="B281" s="3">
+        <v>280</v>
+      </c>
+      <c r="C281">
+        <v>62</v>
+      </c>
+      <c r="D281">
+        <v>68.765000000000001</v>
+      </c>
+      <c r="E281">
+        <v>69.499999999999901</v>
+      </c>
+      <c r="F281">
+        <v>70.018333333333402</v>
+      </c>
+      <c r="G281">
+        <v>66.966666666666598</v>
+      </c>
+      <c r="H281">
+        <v>251.00846000000001</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>41832.083333333336</v>
+      </c>
+      <c r="B282" s="3">
+        <v>281</v>
+      </c>
+      <c r="C282">
+        <v>62</v>
+      </c>
+      <c r="D282">
+        <v>69.144999999999996</v>
+      </c>
+      <c r="E282">
+        <v>69.624999999999901</v>
+      </c>
+      <c r="F282">
+        <v>70.100000000000094</v>
+      </c>
+      <c r="G282">
+        <v>67.055000000000007</v>
+      </c>
+      <c r="H282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>41832.125</v>
+      </c>
+      <c r="B283" s="3">
+        <v>282</v>
+      </c>
+      <c r="C283">
+        <v>61</v>
+      </c>
+      <c r="D283">
+        <v>69.7</v>
+      </c>
+      <c r="E283">
+        <v>69.5833333333333</v>
+      </c>
+      <c r="F283">
+        <v>70.053333333333299</v>
+      </c>
+      <c r="G283">
+        <v>67.091666666666598</v>
+      </c>
+      <c r="H283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>41832.166666666664</v>
+      </c>
+      <c r="B284" s="3">
+        <v>283</v>
+      </c>
+      <c r="C284">
+        <v>61</v>
+      </c>
+      <c r="D284">
+        <v>70.050000000000097</v>
+      </c>
+      <c r="E284">
+        <v>69.499999999999901</v>
+      </c>
+      <c r="F284">
+        <v>69.801666666666605</v>
+      </c>
+      <c r="G284">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="H284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>41832.208333333336</v>
+      </c>
+      <c r="B285" s="3">
+        <v>284</v>
+      </c>
+      <c r="C285">
+        <v>61</v>
+      </c>
+      <c r="D285">
+        <v>70.100000000000094</v>
+      </c>
+      <c r="E285">
+        <v>69.499999999999901</v>
+      </c>
+      <c r="F285">
+        <v>69.508333333333297</v>
+      </c>
+      <c r="G285">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="H285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>41832.25</v>
+      </c>
+      <c r="B286" s="3">
+        <v>285</v>
+      </c>
+      <c r="C286">
+        <v>62</v>
+      </c>
+      <c r="D286">
+        <v>69.906666666666595</v>
+      </c>
+      <c r="E286">
+        <v>69.499999999999901</v>
+      </c>
+      <c r="F286">
+        <v>69.228333333333396</v>
+      </c>
+      <c r="G286">
+        <v>67.171666666666596</v>
+      </c>
+      <c r="H286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>41832.291666666664</v>
+      </c>
+      <c r="B287" s="3">
+        <v>286</v>
+      </c>
+      <c r="C287">
+        <v>62</v>
+      </c>
+      <c r="D287">
+        <v>69.6516666666665</v>
+      </c>
+      <c r="E287">
+        <v>69.499999999999901</v>
+      </c>
+      <c r="F287">
+        <v>68.959999999999894</v>
+      </c>
+      <c r="G287">
+        <v>67.144999999999996</v>
+      </c>
+      <c r="H287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>41832.333333333336</v>
+      </c>
+      <c r="B288" s="3">
+        <v>287</v>
+      </c>
+      <c r="C288">
+        <v>62</v>
+      </c>
+      <c r="D288">
+        <v>69.473333333333301</v>
+      </c>
+      <c r="E288">
+        <v>69.483333333333306</v>
+      </c>
+      <c r="F288">
+        <v>68.733333333333405</v>
+      </c>
+      <c r="G288">
+        <v>67.174999999999997</v>
+      </c>
+      <c r="H288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>41832.375</v>
+      </c>
+      <c r="B289" s="3">
+        <v>288</v>
+      </c>
+      <c r="C289">
+        <v>63</v>
+      </c>
+      <c r="D289">
+        <v>68.981666666666598</v>
+      </c>
+      <c r="E289">
+        <v>69.424999999999898</v>
+      </c>
+      <c r="F289">
+        <v>68.499999999999901</v>
+      </c>
+      <c r="G289">
+        <v>67.186666666666596</v>
+      </c>
+      <c r="H289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>41832.416666666664</v>
+      </c>
+      <c r="B290" s="3">
+        <v>289</v>
+      </c>
+      <c r="C290">
+        <v>64</v>
+      </c>
+      <c r="D290">
+        <v>68.189999999999898</v>
+      </c>
+      <c r="E290">
+        <v>69.133333333333297</v>
+      </c>
+      <c r="F290">
+        <v>68.276666666666699</v>
+      </c>
+      <c r="G290">
+        <v>67.150000000000006</v>
+      </c>
+      <c r="H290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>41832.458333333336</v>
+      </c>
+      <c r="B291" s="3">
+        <v>290</v>
+      </c>
+      <c r="C291">
+        <v>66</v>
+      </c>
+      <c r="D291">
+        <v>67.649999999999906</v>
+      </c>
+      <c r="E291">
+        <v>68.999999999999901</v>
+      </c>
+      <c r="F291">
+        <v>68.108333333333306</v>
+      </c>
+      <c r="G291">
+        <v>67.155000000000001</v>
+      </c>
+      <c r="H291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>41832.5</v>
+      </c>
+      <c r="B292" s="3">
+        <v>291</v>
+      </c>
+      <c r="C292">
+        <v>66.566666666666606</v>
+      </c>
+      <c r="D292">
+        <v>67.271666666666604</v>
+      </c>
+      <c r="E292">
+        <v>68.999999999999901</v>
+      </c>
+      <c r="F292">
+        <v>67.936666666666596</v>
+      </c>
+      <c r="G292">
+        <v>67.136666666666599</v>
+      </c>
+      <c r="H292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>41832.541666666664</v>
+      </c>
+      <c r="B293" s="3">
+        <v>292</v>
+      </c>
+      <c r="C293">
+        <v>69</v>
+      </c>
+      <c r="D293">
+        <v>66.998333333333306</v>
+      </c>
+      <c r="E293">
+        <v>68.824999999999903</v>
+      </c>
+      <c r="F293">
+        <v>67.754999999999896</v>
+      </c>
+      <c r="G293">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="H293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>41832.583333333336</v>
+      </c>
+      <c r="B294" s="3">
+        <v>293</v>
+      </c>
+      <c r="C294">
+        <v>69</v>
+      </c>
+      <c r="D294">
+        <v>66.769999999999897</v>
+      </c>
+      <c r="E294">
+        <v>68.558333333333294</v>
+      </c>
+      <c r="F294">
+        <v>67.613333333333202</v>
+      </c>
+      <c r="G294">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="H294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>41832.625</v>
+      </c>
+      <c r="B295" s="3">
+        <v>294</v>
+      </c>
+      <c r="C295">
+        <v>69</v>
+      </c>
+      <c r="D295">
+        <v>66.55</v>
+      </c>
+      <c r="E295">
+        <v>68.499999999999901</v>
+      </c>
+      <c r="F295">
+        <v>67.444999999999993</v>
+      </c>
+      <c r="G295">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="H295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>41832.666666666664</v>
+      </c>
+      <c r="B296" s="3">
+        <v>295</v>
+      </c>
+      <c r="C296">
+        <v>66.033333333333303</v>
+      </c>
+      <c r="D296">
+        <v>66.39</v>
+      </c>
+      <c r="E296">
+        <v>68.499999999999901</v>
+      </c>
+      <c r="F296">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="G296">
+        <v>67.0833333333333</v>
+      </c>
+      <c r="H296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>41832.708333333336</v>
+      </c>
+      <c r="B297" s="3">
+        <v>296</v>
+      </c>
+      <c r="C297">
+        <v>65</v>
+      </c>
+      <c r="D297">
+        <v>66.343333333333305</v>
+      </c>
+      <c r="E297">
+        <v>68.499999999999901</v>
+      </c>
+      <c r="F297">
+        <v>67.411666666666704</v>
+      </c>
+      <c r="G297">
+        <v>67.078333333333305</v>
+      </c>
+      <c r="H297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>41832.75</v>
+      </c>
+      <c r="B298" s="3">
+        <v>297</v>
+      </c>
+      <c r="C298">
+        <v>64</v>
+      </c>
+      <c r="D298">
+        <v>66.821666666666601</v>
+      </c>
+      <c r="E298">
+        <v>68.499999999999901</v>
+      </c>
+      <c r="F298">
+        <v>67.606666666666499</v>
+      </c>
+      <c r="G298">
+        <v>67.025000000000006</v>
+      </c>
+      <c r="H298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>41832.791666666664</v>
+      </c>
+      <c r="B299" s="3">
+        <v>298</v>
+      </c>
+      <c r="C299">
+        <v>62</v>
+      </c>
+      <c r="D299">
+        <v>67.101666666666603</v>
+      </c>
+      <c r="E299">
+        <v>68.499999999999901</v>
+      </c>
+      <c r="F299">
+        <v>67.94</v>
+      </c>
+      <c r="G299">
+        <v>67</v>
+      </c>
+      <c r="H299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>41832.833333333336</v>
+      </c>
+      <c r="B300" s="3">
+        <v>299</v>
+      </c>
+      <c r="C300">
+        <v>60.683333333333302</v>
+      </c>
+      <c r="D300">
+        <v>67.331666666666706</v>
+      </c>
+      <c r="E300">
+        <v>68.499999999999901</v>
+      </c>
+      <c r="F300">
+        <v>68.418333333333194</v>
+      </c>
+      <c r="G300">
+        <v>67</v>
+      </c>
+      <c r="H300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>41832.875</v>
+      </c>
+      <c r="B301" s="3">
+        <v>300</v>
+      </c>
+      <c r="C301">
+        <v>60</v>
+      </c>
+      <c r="D301">
+        <v>67.593333333333206</v>
+      </c>
+      <c r="E301">
+        <v>68.499999999999901</v>
+      </c>
+      <c r="F301">
+        <v>68.981666666666598</v>
+      </c>
+      <c r="G301">
+        <v>66.961666666666602</v>
+      </c>
+      <c r="H301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>41832.916666666664</v>
+      </c>
+      <c r="B302" s="3">
+        <v>301</v>
+      </c>
+      <c r="C302">
+        <v>59</v>
+      </c>
+      <c r="D302">
+        <v>67.86</v>
+      </c>
+      <c r="E302">
+        <v>68.574999999999903</v>
+      </c>
+      <c r="F302">
+        <v>69.278333333333293</v>
+      </c>
+      <c r="G302">
+        <v>66.933333333333294</v>
+      </c>
+      <c r="H302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>41832.958333333336</v>
+      </c>
+      <c r="B303" s="3">
+        <v>302</v>
+      </c>
+      <c r="C303">
+        <v>58</v>
+      </c>
+      <c r="D303">
+        <v>68.183333333333394</v>
+      </c>
+      <c r="E303">
+        <v>68.933333333333294</v>
+      </c>
+      <c r="F303">
+        <v>69.428333333333299</v>
+      </c>
+      <c r="G303">
+        <v>66.933333333333294</v>
+      </c>
+      <c r="H303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>41833</v>
+      </c>
+      <c r="B304" s="3">
+        <v>303</v>
+      </c>
+      <c r="C304">
+        <v>59</v>
+      </c>
+      <c r="D304">
+        <v>68.563333333333304</v>
+      </c>
+      <c r="E304">
+        <v>68.999999999999901</v>
+      </c>
+      <c r="F304">
+        <v>69.514999999999901</v>
+      </c>
+      <c r="G304">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="H304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>41833.041666666664</v>
+      </c>
+      <c r="B305" s="3">
+        <v>304</v>
+      </c>
+      <c r="C305">
+        <v>59</v>
+      </c>
+      <c r="D305">
+        <v>68.968333333333206</v>
+      </c>
+      <c r="E305">
+        <v>68.999999999999901</v>
+      </c>
+      <c r="F305">
+        <v>69.599999999999895</v>
+      </c>
+      <c r="G305">
+        <v>66.933333333333294</v>
+      </c>
+      <c r="H305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>41833.083333333336</v>
+      </c>
+      <c r="B306" s="3">
+        <v>305</v>
+      </c>
+      <c r="C306">
+        <v>58</v>
+      </c>
+      <c r="D306">
+        <v>69.356666666666598</v>
+      </c>
+      <c r="E306">
+        <v>69.016666666666595</v>
+      </c>
+      <c r="F306">
+        <v>69.599999999999895</v>
+      </c>
+      <c r="G306">
+        <v>66.924999999999997</v>
+      </c>
+      <c r="H306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>41833.125</v>
+      </c>
+      <c r="B307" s="3">
+        <v>306</v>
+      </c>
+      <c r="C307">
+        <v>58</v>
+      </c>
+      <c r="D307">
+        <v>69.603333333333197</v>
+      </c>
+      <c r="E307">
+        <v>69.016666666666595</v>
+      </c>
+      <c r="F307">
+        <v>69.5683333333332</v>
+      </c>
+      <c r="G307">
+        <v>66.954999999999998</v>
+      </c>
+      <c r="H307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>41833.166666666664</v>
+      </c>
+      <c r="B308" s="3">
+        <v>307</v>
+      </c>
+      <c r="C308">
+        <v>58</v>
+      </c>
+      <c r="D308">
+        <v>69.646666666666604</v>
+      </c>
+      <c r="E308">
+        <v>68.999999999999901</v>
+      </c>
+      <c r="F308">
+        <v>69.305000000000007</v>
+      </c>
+      <c r="G308">
+        <v>67</v>
+      </c>
+      <c r="H308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>41833.208333333336</v>
+      </c>
+      <c r="B309" s="3">
+        <v>308</v>
+      </c>
+      <c r="C309">
+        <v>58</v>
+      </c>
+      <c r="D309">
+        <v>68.784999999999997</v>
+      </c>
+      <c r="E309">
+        <v>68.999999999999901</v>
+      </c>
+      <c r="F309">
+        <v>68.921666666666596</v>
+      </c>
+      <c r="G309">
+        <v>67</v>
+      </c>
+      <c r="H309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <v>41833.25</v>
+      </c>
+      <c r="B310" s="3">
+        <v>309</v>
+      </c>
+      <c r="C310">
+        <v>58</v>
+      </c>
+      <c r="D310">
+        <v>67.739999999999895</v>
+      </c>
+      <c r="E310">
+        <v>68.999999999999901</v>
+      </c>
+      <c r="F310">
+        <v>68.506666666666604</v>
+      </c>
+      <c r="G310">
+        <v>67</v>
+      </c>
+      <c r="H310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
+        <v>41833.291666666664</v>
+      </c>
+      <c r="B311" s="3">
+        <v>310</v>
+      </c>
+      <c r="C311">
+        <v>58</v>
+      </c>
+      <c r="D311">
+        <v>67.358333333333405</v>
+      </c>
+      <c r="E311">
+        <v>68.9166666666666</v>
+      </c>
+      <c r="F311">
+        <v>68.278333333333407</v>
+      </c>
+      <c r="G311">
+        <v>67</v>
+      </c>
+      <c r="H311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
+        <v>41833.333333333336</v>
+      </c>
+      <c r="B312" s="3">
+        <v>311</v>
+      </c>
+      <c r="C312">
+        <v>59</v>
+      </c>
+      <c r="D312">
+        <v>61.983333333333299</v>
+      </c>
+      <c r="E312">
+        <v>67.5833333333333</v>
+      </c>
+      <c r="F312">
+        <v>67.576666666666597</v>
+      </c>
+      <c r="G312">
+        <v>67</v>
+      </c>
+      <c r="H312">
+        <v>433.94707499999998</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
+        <v>41833.375</v>
+      </c>
+      <c r="B313" s="3">
+        <v>312</v>
+      </c>
+      <c r="C313">
+        <v>60</v>
+      </c>
+      <c r="D313">
+        <v>57.661666666666598</v>
+      </c>
+      <c r="E313">
+        <v>65.216666666666697</v>
+      </c>
+      <c r="F313">
+        <v>65.94</v>
+      </c>
+      <c r="G313">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="H313">
+        <v>761.31624999999997</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
+        <v>41833.416666666664</v>
+      </c>
+      <c r="B314" s="3">
+        <v>313</v>
+      </c>
+      <c r="C314">
+        <v>62</v>
+      </c>
+      <c r="D314">
+        <v>71.996666666666599</v>
+      </c>
+      <c r="E314">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="F314">
+        <v>70.251666666666594</v>
+      </c>
+      <c r="G314">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="H314">
+        <v>405.75745000000001</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="3"/>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="3"/>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="3"/>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="3"/>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="3"/>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="3"/>
     </row>
